--- a/column_names_dictionary_2.xlsx
+++ b/column_names_dictionary_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4cdd69791e362b2/Desktop/Moringa/dsc-phase-5-group-14-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="637" documentId="13_ncr:1_{2FEDB0E8-29DE-4E1E-9B2D-9A98BCACFA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{543326F0-B730-470C-9487-B242441E0008}"/>
+  <xr:revisionPtr revIDLastSave="651" documentId="13_ncr:1_{2FEDB0E8-29DE-4E1E-9B2D-9A98BCACFA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B128453-8727-4386-87A9-06AA4CB474B7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12359,9 +12359,6 @@
     <t>SH130_combined</t>
   </si>
   <si>
-    <t>na_presence_of_cs</t>
-  </si>
-  <si>
     <t>blood_smear_bar_code</t>
   </si>
   <si>
@@ -13008,6 +13005,9 @@
   </si>
   <si>
     <t>childs_age_in_days_20</t>
+  </si>
+  <si>
+    <t>final_blood_smear_test</t>
   </si>
 </sst>
 </file>
@@ -13147,10 +13147,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13354,8 +13350,8 @@
   <dimension ref="A1:F2053"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A521" sqref="A521"/>
+      <pane ySplit="1" topLeftCell="A1826" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1830" sqref="C1830"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17473,7 +17469,7 @@
         <v>647</v>
       </c>
       <c r="B374" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="C374" t="s">
         <v>648</v>
@@ -17484,7 +17480,7 @@
         <v>649</v>
       </c>
       <c r="B375" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="C375" t="s">
         <v>648</v>
@@ -17495,7 +17491,7 @@
         <v>650</v>
       </c>
       <c r="B376" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="C376" t="s">
         <v>648</v>
@@ -17506,7 +17502,7 @@
         <v>651</v>
       </c>
       <c r="B377" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="C377" t="s">
         <v>648</v>
@@ -17517,7 +17513,7 @@
         <v>652</v>
       </c>
       <c r="B378" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="C378" t="s">
         <v>648</v>
@@ -17528,7 +17524,7 @@
         <v>653</v>
       </c>
       <c r="B379" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="C379" t="s">
         <v>648</v>
@@ -17539,7 +17535,7 @@
         <v>654</v>
       </c>
       <c r="B380" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="C380" t="s">
         <v>648</v>
@@ -17550,7 +17546,7 @@
         <v>655</v>
       </c>
       <c r="B381" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="C381" t="s">
         <v>648</v>
@@ -17561,7 +17557,7 @@
         <v>656</v>
       </c>
       <c r="B382" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="C382" t="s">
         <v>648</v>
@@ -17572,7 +17568,7 @@
         <v>657</v>
       </c>
       <c r="B383" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="C383" t="s">
         <v>648</v>
@@ -17583,7 +17579,7 @@
         <v>658</v>
       </c>
       <c r="B384" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="C384" t="s">
         <v>648</v>
@@ -17594,7 +17590,7 @@
         <v>659</v>
       </c>
       <c r="B385" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="C385" t="s">
         <v>648</v>
@@ -17605,7 +17601,7 @@
         <v>660</v>
       </c>
       <c r="B386" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="C386" t="s">
         <v>648</v>
@@ -17616,7 +17612,7 @@
         <v>661</v>
       </c>
       <c r="B387" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="C387" t="s">
         <v>648</v>
@@ -17627,7 +17623,7 @@
         <v>662</v>
       </c>
       <c r="B388" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="C388" t="s">
         <v>648</v>
@@ -17638,7 +17634,7 @@
         <v>663</v>
       </c>
       <c r="B389" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="C389" t="s">
         <v>648</v>
@@ -17649,7 +17645,7 @@
         <v>664</v>
       </c>
       <c r="B390" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="C390" t="s">
         <v>648</v>
@@ -17660,7 +17656,7 @@
         <v>665</v>
       </c>
       <c r="B391" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="C391" t="s">
         <v>648</v>
@@ -17671,7 +17667,7 @@
         <v>666</v>
       </c>
       <c r="B392" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="C392" t="s">
         <v>648</v>
@@ -17682,7 +17678,7 @@
         <v>667</v>
       </c>
       <c r="B393" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="C393" t="s">
         <v>648</v>
@@ -27329,7 +27325,7 @@
         <v>1593</v>
       </c>
       <c r="B1270" s="3" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="C1270" t="s">
         <v>1594</v>
@@ -27341,7 +27337,7 @@
         <v>1595</v>
       </c>
       <c r="B1271" s="3" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="C1271" t="s">
         <v>1594</v>
@@ -27353,7 +27349,7 @@
         <v>1596</v>
       </c>
       <c r="B1272" s="3" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="C1272" t="s">
         <v>1594</v>
@@ -27365,7 +27361,7 @@
         <v>1597</v>
       </c>
       <c r="B1273" s="3" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="C1273" t="s">
         <v>1594</v>
@@ -27377,7 +27373,7 @@
         <v>1598</v>
       </c>
       <c r="B1274" s="3" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="C1274" t="s">
         <v>1594</v>
@@ -27389,7 +27385,7 @@
         <v>1599</v>
       </c>
       <c r="B1275" s="3" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
       <c r="C1275" t="s">
         <v>1594</v>
@@ -27401,7 +27397,7 @@
         <v>1600</v>
       </c>
       <c r="B1276" s="3" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
       <c r="C1276" t="s">
         <v>1594</v>
@@ -34893,10 +34889,10 @@
         <v>4103</v>
       </c>
       <c r="B1957" t="s">
-        <v>4107</v>
+        <v>4323</v>
       </c>
       <c r="C1957" t="s">
-        <v>2108</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1958" spans="1:4" x14ac:dyDescent="0.25">
@@ -34904,7 +34900,7 @@
         <v>4104</v>
       </c>
       <c r="B1958" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="C1958" t="s">
         <v>2108</v>
@@ -34915,7 +34911,7 @@
         <v>4105</v>
       </c>
       <c r="B1959" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="C1959" t="s">
         <v>1383</v>
@@ -34926,7 +34922,7 @@
         <v>4106</v>
       </c>
       <c r="B1960" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="C1960" t="s">
         <v>1671</v>
@@ -34934,10 +34930,10 @@
     </row>
     <row r="1961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="B1961" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="C1961" t="s">
         <v>2231</v>
@@ -34945,10 +34941,10 @@
     </row>
     <row r="1962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1962" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="B1962" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="C1962" t="s">
         <v>2181</v>
@@ -34956,10 +34952,10 @@
     </row>
     <row r="1963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1963" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="B1963" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="C1963" t="s">
         <v>1026</v>
@@ -34967,10 +34963,10 @@
     </row>
     <row r="1964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1964" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="B1964" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="C1964" t="s">
         <v>1257</v>
@@ -34978,10 +34974,10 @@
     </row>
     <row r="1965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1965" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="B1965" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="C1965" t="s">
         <v>1278</v>
@@ -34989,10 +34985,10 @@
     </row>
     <row r="1966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1966" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="B1966" s="3" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
       <c r="C1966" t="s">
         <v>311</v>
@@ -35001,10 +34997,10 @@
     </row>
     <row r="1967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1967" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="B1967" s="3" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="C1967" t="s">
         <v>963</v>
@@ -35013,10 +35009,10 @@
     </row>
     <row r="1968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1968" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="B1968" s="3" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="C1968" t="s">
         <v>984</v>
@@ -35025,10 +35021,10 @@
     </row>
     <row r="1969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1969" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="B1969" s="3" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="C1969" t="s">
         <v>1005</v>
@@ -35037,10 +35033,10 @@
     </row>
     <row r="1970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1970" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="B1970" s="3" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="C1970" t="s">
         <v>1299</v>
@@ -35049,10 +35045,10 @@
     </row>
     <row r="1971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1971" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="B1971" s="3" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="C1971" t="s">
         <v>156</v>
@@ -35061,10 +35057,10 @@
     </row>
     <row r="1972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1972" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="B1972" s="3" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="C1972" t="s">
         <v>1864</v>
@@ -35073,10 +35069,10 @@
     </row>
     <row r="1973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1973" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="B1973" s="3" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
       <c r="C1973" t="s">
         <v>1320</v>
@@ -35085,10 +35081,10 @@
     </row>
     <row r="1974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1974" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="B1974" s="3" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="C1974" t="s">
         <v>1341</v>
@@ -35097,10 +35093,10 @@
     </row>
     <row r="1975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1975" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="B1975" s="3" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="C1975" t="s">
         <v>1362</v>
@@ -35109,10 +35105,10 @@
     </row>
     <row r="1976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1976" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="B1976" s="3" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
       <c r="C1976" t="s">
         <v>1383</v>
@@ -35121,10 +35117,10 @@
     </row>
     <row r="1977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1977" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B1977" s="3" t="s">
-        <v>4138</v>
+        <v>4137</v>
       </c>
       <c r="C1977" t="s">
         <v>1404</v>
@@ -35133,10 +35129,10 @@
     </row>
     <row r="1978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1978" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B1978" s="3" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="C1978" t="s">
         <v>1425</v>
@@ -35145,10 +35141,10 @@
     </row>
     <row r="1979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1979" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="B1979" s="3" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
       <c r="C1979" t="s">
         <v>1554</v>
@@ -35157,10 +35153,10 @@
     </row>
     <row r="1980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1980" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="B1980" s="3" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="C1980" t="s">
         <v>1562</v>
@@ -35169,10 +35165,10 @@
     </row>
     <row r="1981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1981" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="B1981" s="3" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
       <c r="C1981" t="s">
         <v>1594</v>
@@ -35181,10 +35177,10 @@
     </row>
     <row r="1982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1982" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="B1982" s="3" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
       <c r="C1982" t="s">
         <v>1602</v>
@@ -35193,10 +35189,10 @@
     </row>
     <row r="1983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1983" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="B1983" s="3" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="C1983" t="s">
         <v>176</v>
@@ -35205,10 +35201,10 @@
     </row>
     <row r="1984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1984" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="B1984" s="3" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
       <c r="C1984" t="s">
         <v>2008</v>
@@ -35216,10 +35212,10 @@
     </row>
     <row r="1985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1985" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="B1985" s="3" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
       <c r="C1985" t="s">
         <v>2033</v>
@@ -35227,10 +35223,10 @@
     </row>
     <row r="1986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1986" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="B1986" s="3" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="C1986" t="s">
         <v>2058</v>
@@ -35239,10 +35235,10 @@
     </row>
     <row r="1987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1987" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="B1987" s="3" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="C1987" t="s">
         <v>2083</v>
@@ -35251,10 +35247,10 @@
     </row>
     <row r="1988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1988" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="B1988" s="3" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="C1988" t="s">
         <v>2108</v>
@@ -35263,10 +35259,10 @@
     </row>
     <row r="1989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1989" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="B1989" s="3" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
       <c r="C1989" t="s">
         <v>2108</v>
@@ -35275,10 +35271,10 @@
     </row>
     <row r="1990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1990" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="B1990" s="3" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="C1990" t="s">
         <v>2108</v>
@@ -35287,10 +35283,10 @@
     </row>
     <row r="1991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1991" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="B1991" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="C1991" t="s">
         <v>117</v>
@@ -35299,10 +35295,10 @@
     </row>
     <row r="1992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1992" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="B1992" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
       <c r="C1992" t="s">
         <v>309</v>
@@ -35311,10 +35307,10 @@
     </row>
     <row r="1993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1993" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="B1993" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="C1993" t="s">
         <v>125</v>
@@ -35323,10 +35319,10 @@
     </row>
     <row r="1994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1994" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="B1994" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="C1994" t="s">
         <v>310</v>
@@ -35335,10 +35331,10 @@
     </row>
     <row r="1995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1995" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="B1995" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="C1995" t="s">
         <v>134</v>
@@ -35347,10 +35343,10 @@
     </row>
     <row r="1996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1996" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="B1996" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="C1996" t="s">
         <v>139</v>
@@ -35359,10 +35355,10 @@
     </row>
     <row r="1997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1997" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="B1997" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="C1997" t="s">
         <v>144</v>
@@ -35371,10 +35367,10 @@
     </row>
     <row r="1998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1998" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="B1998" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="C1998" t="s">
         <v>151</v>
@@ -35383,10 +35379,10 @@
     </row>
     <row r="1999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1999" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="B1999" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="C1999" t="s">
         <v>161</v>
@@ -35395,10 +35391,10 @@
     </row>
     <row r="2000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2000" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="B2000" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="C2000" t="s">
         <v>166</v>
@@ -35407,10 +35403,10 @@
     </row>
     <row r="2001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2001" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="B2001" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="C2001" t="s">
         <v>171</v>
@@ -35419,10 +35415,10 @@
     </row>
     <row r="2002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2002" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
       <c r="B2002" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="C2002" t="s">
         <v>181</v>
@@ -35431,10 +35427,10 @@
     </row>
     <row r="2003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2003" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="B2003" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="C2003" t="s">
         <v>151</v>
@@ -35443,10 +35439,10 @@
     </row>
     <row r="2004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2004" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="B2004" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="C2004" t="s">
         <v>627</v>
@@ -35455,10 +35451,10 @@
     </row>
     <row r="2005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2005" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="B2005" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="C2005" t="s">
         <v>648</v>
@@ -35467,10 +35463,10 @@
     </row>
     <row r="2006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2006" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="B2006" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="C2006" t="s">
         <v>669</v>
@@ -35479,10 +35475,10 @@
     </row>
     <row r="2007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2007" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="B2007" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="C2007" t="s">
         <v>690</v>
@@ -35491,10 +35487,10 @@
     </row>
     <row r="2008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2008" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="B2008" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="C2008" t="s">
         <v>711</v>
@@ -35503,10 +35499,10 @@
     </row>
     <row r="2009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2009" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="B2009" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="C2009" t="s">
         <v>732</v>
@@ -35515,10 +35511,10 @@
     </row>
     <row r="2010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2010" t="s">
-        <v>4197</v>
+        <v>4196</v>
       </c>
       <c r="B2010" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="C2010" t="s">
         <v>753</v>
@@ -35527,10 +35523,10 @@
     </row>
     <row r="2011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2011" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
       <c r="B2011" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="C2011" t="s">
         <v>774</v>
@@ -35539,10 +35535,10 @@
     </row>
     <row r="2012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2012" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="B2012" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="C2012" t="s">
         <v>795</v>
@@ -35551,10 +35547,10 @@
     </row>
     <row r="2013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2013" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="B2013" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="C2013" t="s">
         <v>816</v>
@@ -35563,10 +35559,10 @@
     </row>
     <row r="2014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2014" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="B2014" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="C2014" t="s">
         <v>837</v>
@@ -35575,10 +35571,10 @@
     </row>
     <row r="2015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2015" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="B2015" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="C2015" t="s">
         <v>858</v>
@@ -35587,10 +35583,10 @@
     </row>
     <row r="2016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2016" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="B2016" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="C2016" t="s">
         <v>879</v>
@@ -35599,10 +35595,10 @@
     </row>
     <row r="2017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2017" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="B2017" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="C2017" t="s">
         <v>900</v>
@@ -35611,10 +35607,10 @@
     </row>
     <row r="2018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2018" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="B2018" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="C2018" t="s">
         <v>921</v>
@@ -35623,10 +35619,10 @@
     </row>
     <row r="2019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2019" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="B2019" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="C2019" t="s">
         <v>942</v>
@@ -35635,10 +35631,10 @@
     </row>
     <row r="2020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2020" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="B2020" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="C2020" t="s">
         <v>1047</v>
@@ -35647,10 +35643,10 @@
     </row>
     <row r="2021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2021" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="B2021" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="C2021" t="s">
         <v>1068</v>
@@ -35659,10 +35655,10 @@
     </row>
     <row r="2022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2022" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="B2022" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="C2022" t="s">
         <v>1089</v>
@@ -35671,10 +35667,10 @@
     </row>
     <row r="2023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2023" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
       <c r="B2023" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="C2023" t="s">
         <v>1110</v>
@@ -35683,10 +35679,10 @@
     </row>
     <row r="2024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2024" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="B2024" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="C2024" t="s">
         <v>1131</v>
@@ -35695,10 +35691,10 @@
     </row>
     <row r="2025" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2025" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="B2025" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="C2025" t="s">
         <v>1152</v>
@@ -35707,10 +35703,10 @@
     </row>
     <row r="2026" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2026" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="B2026" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="C2026" t="s">
         <v>1173</v>
@@ -35719,10 +35715,10 @@
     </row>
     <row r="2027" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2027" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="B2027" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="C2027" t="s">
         <v>1194</v>
@@ -35731,10 +35727,10 @@
     </row>
     <row r="2028" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2028" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="B2028" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="C2028" t="s">
         <v>1215</v>
@@ -35743,10 +35739,10 @@
     </row>
     <row r="2029" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2029" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="B2029" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="C2029" t="s">
         <v>1446</v>
@@ -35755,10 +35751,10 @@
     </row>
     <row r="2030" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2030" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="B2030" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="C2030" t="s">
         <v>1467</v>
@@ -35767,10 +35763,10 @@
     </row>
     <row r="2031" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2031" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="B2031" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="C2031" t="s">
         <v>1488</v>
@@ -35779,10 +35775,10 @@
     </row>
     <row r="2032" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2032" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="B2032" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="C2032" t="s">
         <v>1509</v>
@@ -35791,10 +35787,10 @@
     </row>
     <row r="2033" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2033" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="B2033" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="C2033" t="s">
         <v>1530</v>
@@ -35803,10 +35799,10 @@
     </row>
     <row r="2034" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2034" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="B2034" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="C2034" t="s">
         <v>1538</v>
@@ -35815,10 +35811,10 @@
     </row>
     <row r="2035" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2035" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="B2035" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="C2035" t="s">
         <v>1546</v>
@@ -35827,10 +35823,10 @@
     </row>
     <row r="2036" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2036" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="B2036" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="C2036" t="s">
         <v>1570</v>
@@ -35839,10 +35835,10 @@
     </row>
     <row r="2037" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2037" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="B2037" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="C2037" t="s">
         <v>1578</v>
@@ -35851,10 +35847,10 @@
     </row>
     <row r="2038" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2038" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="B2038" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="C2038" t="s">
         <v>1586</v>
@@ -35863,10 +35859,10 @@
     </row>
     <row r="2039" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2039" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="B2039" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="C2039" t="s">
         <v>1610</v>
@@ -35875,10 +35871,10 @@
     </row>
     <row r="2040" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2040" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="B2040" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="C2040" t="s">
         <v>1618</v>
@@ -35887,10 +35883,10 @@
     </row>
     <row r="2041" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2041" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="B2041" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="C2041" t="s">
         <v>1618</v>
@@ -35899,10 +35895,10 @@
     </row>
     <row r="2042" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2042" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="B2042" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="C2042" t="s">
         <v>1618</v>
@@ -35911,10 +35907,10 @@
     </row>
     <row r="2043" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2043" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="B2043" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="C2043" t="s">
         <v>1618</v>
@@ -35923,10 +35919,10 @@
     </row>
     <row r="2044" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2044" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="B2044" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="C2044" t="s">
         <v>1647</v>
@@ -35935,10 +35931,10 @@
     </row>
     <row r="2045" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2045" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="B2045" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="C2045" t="s">
         <v>1655</v>
@@ -35947,10 +35943,10 @@
     </row>
     <row r="2046" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2046" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="B2046" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="C2046" t="s">
         <v>1663</v>
@@ -35959,10 +35955,10 @@
     </row>
     <row r="2047" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2047" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="B2047" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="C2047" t="s">
         <v>1745</v>
@@ -35971,10 +35967,10 @@
     </row>
     <row r="2048" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2048" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="B2048" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="C2048" t="s">
         <v>1770</v>
@@ -35983,10 +35979,10 @@
     </row>
     <row r="2049" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2049" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="B2049" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="C2049" t="s">
         <v>1817</v>
@@ -35995,10 +35991,10 @@
     </row>
     <row r="2050" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2050" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="B2050" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="C2050" t="s">
         <v>1933</v>
@@ -36007,10 +36003,10 @@
     </row>
     <row r="2051" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2051" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="B2051" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="C2051" t="s">
         <v>1958</v>
@@ -36019,10 +36015,10 @@
     </row>
     <row r="2052" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2052" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="B2052" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="C2052" t="s">
         <v>2256</v>
@@ -36031,10 +36027,10 @@
     </row>
     <row r="2053" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2053" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="B2053" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="C2053" t="s">
         <v>2281</v>
